--- a/BalanceSheet/ES_bal.xlsx
+++ b/BalanceSheet/ES_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-36506000.0</v>
+        <v>266000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-38230000.0</v>
+        <v>214000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>110359000.0</v>
+        <v>176000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-51027000.0</v>
+        <v>286000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-42104000.0</v>
+        <v>235000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>204012000.0</v>
@@ -1830,19 +1830,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>243601000.0</v>
+        <v>1371000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>48217000.0</v>
+        <v>1222000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-41885000.0</v>
+        <v>952000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-127366000.0</v>
+        <v>914000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>172221000.0</v>
+        <v>1148000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>892106000.0</v>
@@ -3166,19 +3166,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>100359000.0</v>
+        <v>4095000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>70245000.0</v>
+        <v>3961000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>42349000.0</v>
+        <v>3882000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>44201000.0</v>
+        <v>3817000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>136325000.0</v>
+        <v>3756000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>3604791000.0</v>
